--- a/api_allocate_modular/outputs/excel/assignments_2025-09-27_10-38.xlsx
+++ b/api_allocate_modular/outputs/excel/assignments_2025-09-27_10-38.xlsx
@@ -51,14 +51,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFED"/>
-        <bgColor rgb="FFFFFFED"/>
+        <fgColor rgb="FF93CCEA"/>
+        <bgColor rgb="FF93CCEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93CCEA"/>
-        <bgColor rgb="FF93CCEA"/>
+        <fgColor rgb="FFFFFFED"/>
+        <bgColor rgb="FFFFFFED"/>
       </patternFill>
     </fill>
     <fill>
@@ -112,13 +112,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -126,6 +123,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O31"/>
+  <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
   <cols>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="41" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="22" customWidth="1" min="11" max="11"/>
-    <col width="41" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
-    <col width="21" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="33" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -532,52 +532,52 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Driver: Kaitlyn Kim</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Driver: Bless Hwang</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Driver: Grace Park</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Driver: Olivia Chang</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>Back home 💙</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Driver: Kaitlyn Kim</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Driver: Bless Hwang</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>Back home 💙</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>Driver: Seojin Kwon</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>Driver: Xime Lemus</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>Driver: Grace Park</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Driver: Josh Paik</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>Driver: Grace Park</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>Driver: Ellie Jung</t>
-        </is>
-      </c>
-      <c r="N2" s="5" t="inlineStr">
-        <is>
-          <t>Driver: Seojin Kwon</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>Driver: Kaitlyn Kim</t>
         </is>
       </c>
     </row>
@@ -587,29 +587,29 @@
           <t>North</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Andy Kim</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kuo</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Taryn Lee</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>Sam Ko</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>Isabelle Li</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Cara Lee</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Chloe Lee</t>
-        </is>
-      </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>Kyle Hwang</t>
+          <t>Sehyun Jung</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -617,29 +617,29 @@
           <t>Lunch 💛</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kim</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Kyle Hwang</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kuo</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>Jane Yoo</t>
-        </is>
-      </c>
-      <c r="O3" s="7" t="inlineStr">
-        <is>
-          <t>Claire Doh</t>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Jacob Lei</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>Faith Chen</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>Christina Ko</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="inlineStr">
+        <is>
+          <t>Ella Lu</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Josh (Giung) Lee</t>
         </is>
       </c>
     </row>
@@ -649,59 +649,59 @@
           <t>Off</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Alex Tang</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kim</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>Sam Ko</t>
+          <t>irene jung</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>Claire Doh</t>
+          <t>Joel Shim</t>
         </is>
       </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
+          <t>Ella Lu</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
           <t>Maggie Zheng</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>Ella Lu</t>
-        </is>
-      </c>
       <c r="J4" s="10" t="inlineStr">
         <is>
           <t>NLK 🧡</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Josh (Giung) Lee</t>
-        </is>
-      </c>
-      <c r="L4" s="7" t="inlineStr">
-        <is>
-          <t>Sehyun Jung</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>Valerie Zhang</t>
+        </is>
+      </c>
+      <c r="L4" s="9" t="inlineStr">
+        <is>
+          <t>Ai-My Pham</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>Pedro Flores</t>
+        </is>
+      </c>
+      <c r="N4" s="7" t="inlineStr">
+        <is>
+          <t>Isabelle Li</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
         <is>
           <t>Joyce Wu</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>Josh Yang</t>
-        </is>
-      </c>
-      <c r="O4" s="7" t="inlineStr">
-        <is>
-          <t>Ella Lu</t>
         </is>
       </c>
     </row>
@@ -711,106 +711,106 @@
           <t>South</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>Pedro Flores</t>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Benjamin Kim</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
+          <t>Kyle Hwang</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>Claire Doh</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
           <t>Valerie Zhang</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>Stella Son</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>Claire Doh</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>Jane Yoo</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>Darius Ajebon</t>
+        </is>
+      </c>
+      <c r="N5" s="7" t="inlineStr">
+        <is>
+          <t>Stella Son</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kuo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Jay Jung</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Joann Jung</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Aaron Duong</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>Phillip Seo</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>Cara Lee</t>
+        </is>
+      </c>
+      <c r="K6" s="7" t="inlineStr">
+        <is>
+          <t>Maggie Zheng</t>
+        </is>
+      </c>
+      <c r="L6" s="9" t="inlineStr">
+        <is>
+          <t>Josh Yang</t>
+        </is>
+      </c>
+      <c r="M6" s="9" t="inlineStr">
+        <is>
+          <t>Hannah Lee</t>
+        </is>
+      </c>
+      <c r="N6" s="7" t="inlineStr">
         <is>
           <t>Sehyun Jung</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>irene jung</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>Stella Son</t>
-        </is>
-      </c>
-      <c r="K5" s="9" t="inlineStr">
-        <is>
-          <t>Faith Chen</t>
-        </is>
-      </c>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>Maggie Zheng</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>Shayla Nguyen</t>
-        </is>
-      </c>
-      <c r="N5" s="9" t="inlineStr">
-        <is>
-          <t>Jacob Lei</t>
-        </is>
-      </c>
-      <c r="O5" s="7" t="inlineStr">
-        <is>
-          <t>Stella Son</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>Shayla Nguyen</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>Aaron Duong</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Joann Jung</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>Phillip Seo</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>Joel Shim</t>
-        </is>
-      </c>
-      <c r="K6" s="9" t="inlineStr">
-        <is>
-          <t>Ai-My Pham</t>
-        </is>
-      </c>
-      <c r="L6" s="7" t="inlineStr">
-        <is>
-          <t>irene jung</t>
-        </is>
-      </c>
-      <c r="M6" s="9" t="inlineStr">
-        <is>
-          <t>Pedro Flores</t>
-        </is>
-      </c>
-      <c r="N6" s="9" t="inlineStr">
-        <is>
-          <t>Khang Le</t>
-        </is>
-      </c>
-      <c r="O6" s="7" t="inlineStr">
-        <is>
-          <t>Valerie Zhang</t>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kim</t>
         </is>
       </c>
     </row>
@@ -819,399 +819,389 @@
     <row r="9">
       <c r="C9" s="11" t="inlineStr">
         <is>
+          <t>Driver: Rebecca Lu</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>Driver: Seojin Kwon</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>Driver: Xime Lemus</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
           <t>Driver: Josh Paik</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>Driver: Seojin Kwon</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>Driver: Joshua Yu</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Driver: Olivia Chang</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Driver: Joshua Yu</t>
+        </is>
+      </c>
+      <c r="M9" s="12" t="inlineStr">
+        <is>
+          <t>Driver: Aaron Long</t>
+        </is>
+      </c>
+      <c r="N9" s="12" t="inlineStr">
+        <is>
+          <t>Driver: Ellie Jung</t>
+        </is>
+      </c>
+      <c r="O9" s="13" t="inlineStr">
         <is>
           <t>Driver: Rebecca Lu</t>
         </is>
       </c>
-      <c r="G9" s="12" t="inlineStr">
-        <is>
-          <t>Driver: Aaron Long</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>Driver: Olivia Chang</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>Driver: Joshua Yu</t>
-        </is>
-      </c>
-      <c r="M9" s="13" t="inlineStr">
-        <is>
-          <t>Driver: Aaron Long</t>
-        </is>
-      </c>
-      <c r="N9" s="14" t="inlineStr">
-        <is>
-          <t>Driver: Rebecca Lu</t>
-        </is>
-      </c>
-      <c r="O9" s="14" t="inlineStr">
-        <is>
-          <t>Driver: Bless Hwang</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Grace Fei</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Melody Hong</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>Eugene Seo</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Claudia Lin</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>Elie Park</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>Chloe Lee</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>Samuel Wen</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>Joel Shim</t>
+        </is>
+      </c>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <t>Grace Fei</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Christina Ko</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Zoe Li</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Gabriel Ni</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>Faith Chen</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>Joyce Wu</t>
+        </is>
+      </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>Gabriel Ni</t>
+        </is>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>Susanna Tang</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>Aaron Duong</t>
+        </is>
+      </c>
+      <c r="N11" s="9" t="inlineStr">
+        <is>
+          <t>Karina Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Andy Kim</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Chloe Lee</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Pedro Flores</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Karina Pan</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>Josh (Giung) Lee</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>Kyle Hwang</t>
+        </is>
+      </c>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>Yunzhang Mu</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>Cara Lee</t>
+        </is>
+      </c>
+      <c r="N12" s="9" t="inlineStr">
         <is>
           <t>Claudia Lin</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>Joyce Wu</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Melody Hong</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Jane Yoo</t>
-        </is>
-      </c>
-      <c r="K10" s="6" t="inlineStr">
-        <is>
-          <t>Gabriel Ni</t>
-        </is>
-      </c>
-      <c r="L10" s="6" t="inlineStr">
-        <is>
-          <t>Chloe Lee</t>
-        </is>
-      </c>
-      <c r="M10" s="9" t="inlineStr">
-        <is>
-          <t>Karina Pan</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>Melody Hong</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kuo</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Karina Pan</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Jay Jung</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Jasmine Cheng</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>Khang Le</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Susanna Tang</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Shayla Nguyen</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Ai-My Pham</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>Yunzhang Mu</t>
+        </is>
+      </c>
+      <c r="K13" s="7" t="inlineStr">
+        <is>
+          <t>irene jung</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>Khang Le</t>
+        </is>
+      </c>
+      <c r="M13" s="7" t="inlineStr">
+        <is>
+          <t>Sam Ko</t>
+        </is>
+      </c>
+      <c r="N13" s="9" t="inlineStr">
         <is>
           <t>Grace Sowon Park</t>
-        </is>
-      </c>
-      <c r="K11" s="6" t="inlineStr">
-        <is>
-          <t>Christina Ko</t>
-        </is>
-      </c>
-      <c r="L11" s="9" t="inlineStr">
-        <is>
-          <t>Yunzhang Mu</t>
-        </is>
-      </c>
-      <c r="M11" s="9" t="inlineStr">
-        <is>
-          <t>Claudia Lin</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Benjamin Kim</t>
-        </is>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>Faith Chen</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kim</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>Grace Fei</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Josh Yang</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>Samuel Wen</t>
-        </is>
-      </c>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>Darius Ajebon</t>
-        </is>
-      </c>
-      <c r="M12" s="9" t="inlineStr">
-        <is>
-          <t>Grace Sowon Park</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Josh (Giung) Lee</t>
-        </is>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Ai-My Pham</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Yunzhang Mu</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>Khang Le</t>
-        </is>
-      </c>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>Jacob Lei</t>
-        </is>
-      </c>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>Susanna Tang</t>
-        </is>
-      </c>
-      <c r="L13" s="9" t="inlineStr">
-        <is>
-          <t>Hannah Lee</t>
-        </is>
-      </c>
-      <c r="M13" s="7" t="inlineStr">
-        <is>
-          <t>Sam Ko</t>
         </is>
       </c>
     </row>
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="D16" s="15" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Driver: Aaron Long</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>UNASSIGNED RIDERS</t>
         </is>
       </c>
-      <c r="L16" s="15" t="inlineStr">
+      <c r="K16" s="13" t="inlineStr">
+        <is>
+          <t>Driver: Bless Hwang</t>
+        </is>
+      </c>
+      <c r="M16" s="15" t="inlineStr">
         <is>
           <t>UNASSIGNED RIDERS</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Gabriel Ni — No valid driver</t>
-        </is>
-      </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>Grace Sowon Park</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>Samuel Wen — No valid driver</t>
+        </is>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>Melody Hong</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>Elie Park — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>Jane Yoo</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>Alex Tang — No valid driver</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
         <is>
           <t>Jay Jung — No valid driver</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="D18" s="6" t="inlineStr">
+    <row r="19">
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>Jacob Lei</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>Jasmine Cheng — No valid driver</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>Andy Kim — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>Josh Yang</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Amy Son — No valid driver</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="inlineStr">
+        <is>
+          <t>Alex Tang — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>Darius Ajebon — No valid driver</t>
+        </is>
+      </c>
+      <c r="M21" s="6" t="inlineStr">
         <is>
           <t>Taryn Lee — No valid driver</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
-        <is>
-          <t>Elie Park — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>Samuel Wen — No valid driver</t>
-        </is>
-      </c>
-      <c r="L19" s="6" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Hannah Lee — No valid driver</t>
+        </is>
+      </c>
+      <c r="M22" s="6" t="inlineStr">
+        <is>
+          <t>Zoe Li — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="M23" s="6" t="inlineStr">
         <is>
           <t>Jasmine Cheng — No valid driver</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>Christina Ko — No valid driver</t>
-        </is>
-      </c>
-      <c r="L20" s="6" t="inlineStr">
-        <is>
-          <t>Taryn Lee — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>Zoe Li — No valid driver</t>
-        </is>
-      </c>
-      <c r="L21" s="6" t="inlineStr">
-        <is>
-          <t>Grace Fei — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>Eugene Seo — No valid driver</t>
-        </is>
-      </c>
-      <c r="L22" s="6" t="inlineStr">
-        <is>
-          <t>Zoe Li — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>Susanna Tang — No valid driver</t>
-        </is>
-      </c>
-      <c r="L23" s="6" t="inlineStr">
-        <is>
-          <t>Andy Kim — No valid driver</t>
-        </is>
-      </c>
-    </row>
     <row r="24">
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Hannah Lee — No valid driver</t>
-        </is>
-      </c>
-      <c r="L24" s="6" t="inlineStr">
-        <is>
-          <t>Alex Tang — No valid driver</t>
+      <c r="M24" s="9" t="inlineStr">
+        <is>
+          <t>Amy Son — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>Amy Son — No valid driver</t>
-        </is>
-      </c>
-      <c r="L25" s="9" t="inlineStr">
-        <is>
-          <t>Amy Son — No valid driver</t>
+      <c r="M25" s="7" t="inlineStr">
+        <is>
+          <t>Joann Jung — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Xime Lemus — Invalid off-campus address</t>
-        </is>
-      </c>
-      <c r="L26" s="9" t="inlineStr">
-        <is>
-          <t>Xime Lemus — Invalid off-campus address</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>Darius Ajebon — No valid driver</t>
-        </is>
-      </c>
-      <c r="L27" s="7" t="inlineStr">
+      <c r="M26" s="7" t="inlineStr">
         <is>
           <t>Phillip Seo — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="L28" s="7" t="inlineStr">
-        <is>
-          <t>Aaron Duong — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="L29" s="7" t="inlineStr">
-        <is>
-          <t>Cara Lee — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="L30" s="7" t="inlineStr">
-        <is>
-          <t>Joann Jung — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="L31" s="7" t="inlineStr">
-        <is>
-          <t>Joel Shim — No valid driver</t>
         </is>
       </c>
     </row>
